--- a/Analisi_vendite/Test vari/Dati_destagionalizzati_FULL.xlsx
+++ b/Analisi_vendite/Test vari/Dati_destagionalizzati_FULL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Advanced_Microeconomics_Project\Analisi_vendite\Test vari\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marziodecorato/Documents/GitHub/Advanced_Microeconomics_Project/Analisi_vendite/Test vari/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87ABDB90-6CB1-4734-851F-843CC0BD1927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB85EF9-11A1-6047-B641-50F4E8190BE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{47DF581E-DE23-43B3-BC9A-AC2D7BDCE23F}"/>
+    <workbookView xWindow="3040" yWindow="500" windowWidth="28800" windowHeight="15600" xr2:uid="{47DF581E-DE23-43B3-BC9A-AC2D7BDCE23F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -436,22 +436,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BD8110-2A2D-4FD7-B7EA-BF53B9AE2DA2}">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J43"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14:K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-31</v>
       </c>
@@ -543,7 +543,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-30</v>
       </c>
@@ -591,7 +591,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-29</v>
       </c>
@@ -639,7 +639,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-28</v>
       </c>
@@ -687,7 +687,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-27</v>
       </c>
@@ -735,7 +735,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-26</v>
       </c>
@@ -783,7 +783,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-25</v>
       </c>
@@ -831,7 +831,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-24</v>
       </c>
@@ -879,7 +879,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-23</v>
       </c>
@@ -927,7 +927,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-22</v>
       </c>
@@ -975,7 +975,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-21</v>
       </c>
@@ -1023,7 +1023,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-20</v>
       </c>
@@ -1071,7 +1071,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-19</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-18</v>
       </c>
@@ -1167,7 +1167,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-17</v>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-16</v>
       </c>
@@ -1263,7 +1263,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-15</v>
       </c>
@@ -1311,7 +1311,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-14</v>
       </c>
@@ -1359,7 +1359,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-13</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-12</v>
       </c>
@@ -1455,7 +1455,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-11</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-10</v>
       </c>
@@ -1551,7 +1551,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-9</v>
       </c>
@@ -1599,7 +1599,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-8</v>
       </c>
@@ -1647,7 +1647,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-7</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-6</v>
       </c>
@@ -1743,7 +1743,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-5</v>
       </c>
@@ -1791,7 +1791,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-4</v>
       </c>
@@ -1839,7 +1839,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-3</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-2</v>
       </c>
@@ -1935,7 +1935,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-1</v>
       </c>
@@ -1983,7 +1983,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
@@ -2031,7 +2031,7 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -2127,7 +2127,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2175,7 +2175,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2223,7 +2223,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>6</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>7</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>8</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>9</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>10</v>
       </c>
